--- a/Sales Data 2023/04Apr2023.xlsx
+++ b/Sales Data 2023/04Apr2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nevinphilbert\Portfolio\Full-Stack Projects\Maliq Computer Sales Analysis\Sales Data 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A18FED8-1FA3-4A1A-A6FA-A29AE86A4F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE032500-151C-4329-B6E0-C083E8117819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -620,7 +620,7 @@
   <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sales Data 2023/04Apr2023.xlsx
+++ b/Sales Data 2023/04Apr2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nevinphilbert\Portfolio\Full-Stack Projects\Maliq Computer Sales Analysis\Sales Data 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE032500-151C-4329-B6E0-C083E8117819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ED29CF-3385-4605-807F-76DD1E2DA8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="SalesData" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SalesData!$A$1:$J$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SalesData!$A$1:$K$107</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="88">
   <si>
     <t>ORDERNUMBER_MONTH</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>H61-VARRO</t>
+  </si>
+  <si>
+    <t>PROFIT</t>
   </si>
 </sst>
 </file>
@@ -617,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +639,7 @@
     <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -667,8 +670,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -694,8 +700,12 @@
         <f>G2*D2</f>
         <v>1800000</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f>IF(E2="INTERNALSTORAGE",H2*52%,IF(E2="SERVICE",H2*100%,IF(E2="DISPLAY",H2*50%,IF(E2="RAM",H2*65%,IF(E2="SOFTWARE",H2*100%,IF(E2="BATTERY",H2*70%,IF(E2="KEYBOARD",H2*60%,IF(E2="ADAPTOR",H2*45%,IF(E2="MAINBOARD",H2*15%,IF(E2="ACCESSORIES",H2*25%,IF(E2="VGA",H2*15%,IF(E2="POWERSUPPLY",H2*40%,IF(E2="PROCESSOR",H2*20%,IF(E2="SECOND",H2*150%,IF(E2="CASING",H2*15%,IF(E2="MONITOR",H2*5%,IF(E2="EXTERNALSTORAGE",100000,H2)))))))))))))))))</f>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -721,8 +731,12 @@
         <f t="shared" ref="H3:H56" si="0">G3*D3</f>
         <v>435000</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="1">IF(E3="INTERNALSTORAGE",H3*52%,IF(E3="SERVICE",H3*100%,IF(E3="DISPLAY",H3*50%,IF(E3="RAM",H3*65%,IF(E3="SOFTWARE",H3*100%,IF(E3="BATTERY",H3*70%,IF(E3="KEYBOARD",H3*60%,IF(E3="ADAPTOR",H3*45%,IF(E3="MAINBOARD",H3*15%,IF(E3="ACCESSORIES",H3*25%,IF(E3="VGA",H3*15%,IF(E3="POWERSUPPLY",H3*40%,IF(E3="PROCESSOR",H3*20%,IF(E3="SECOND",H3*150%,IF(E3="CASING",H3*15%,IF(E3="MONITOR",H3*5%,IF(E3="EXTERNALSTORAGE",100000,H3)))))))))))))))))</f>
+        <v>282750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -748,8 +762,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -775,8 +793,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -802,8 +824,12 @@
         <f t="shared" si="0"/>
         <v>650000</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>338000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -829,8 +855,12 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>227500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -857,8 +887,12 @@
         <v>150000</v>
       </c>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -884,8 +918,12 @@
         <f t="shared" si="0"/>
         <v>650000</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>338000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -911,8 +949,12 @@
         <f t="shared" si="0"/>
         <v>475000</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>247000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -938,8 +980,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -965,8 +1011,12 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>227500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -992,8 +1042,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1019,8 +1073,12 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1046,8 +1104,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1073,8 +1135,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1100,8 +1166,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1127,8 +1197,12 @@
         <f t="shared" si="0"/>
         <v>280000</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>196000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1154,8 +1228,12 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1181,8 +1259,12 @@
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>364000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1208,8 +1290,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1235,8 +1321,12 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1262,8 +1352,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1289,8 +1383,12 @@
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1316,8 +1414,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1343,8 +1445,12 @@
         <f t="shared" si="0"/>
         <v>450000</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>234000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1370,8 +1476,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1397,8 +1507,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1424,8 +1538,12 @@
         <f t="shared" si="0"/>
         <v>130000</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>58500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1451,8 +1569,12 @@
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1478,8 +1600,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1508,8 +1634,12 @@
       <c r="I32" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1535,8 +1665,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1562,8 +1696,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1589,8 +1727,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1616,8 +1758,12 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1643,8 +1789,12 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>162500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1670,8 +1820,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1697,8 +1851,12 @@
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1724,8 +1882,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1751,8 +1913,12 @@
         <f t="shared" si="0"/>
         <v>230000</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>103500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1778,8 +1944,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>104000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1805,8 +1975,12 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1832,8 +2006,12 @@
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1859,8 +2037,12 @@
         <f t="shared" si="0"/>
         <v>1100000</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1886,8 +2068,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1913,8 +2099,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1940,8 +2130,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1967,8 +2161,12 @@
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>208000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1994,8 +2192,12 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2021,8 +2223,12 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2048,8 +2254,12 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2075,8 +2285,12 @@
         <f t="shared" si="0"/>
         <v>650000</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <f t="shared" si="1"/>
+        <v>325000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2102,8 +2316,12 @@
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2129,8 +2347,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2156,8 +2378,12 @@
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2180,11 +2406,15 @@
         <v>50000</v>
       </c>
       <c r="H57" s="2">
-        <f t="shared" ref="H57:H88" si="1">G57*D57</f>
+        <f t="shared" ref="H57:H88" si="2">G57*D57</f>
         <v>50000</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2207,11 +2437,15 @@
         <v>850000</v>
       </c>
       <c r="H58" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>850000</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K58">
+        <f t="shared" si="1"/>
+        <v>1275000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2234,11 +2468,15 @@
         <v>100000</v>
       </c>
       <c r="H59" s="2">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2261,11 +2499,15 @@
         <v>100000</v>
       </c>
       <c r="H60" s="2">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2288,11 +2530,15 @@
         <v>200000</v>
       </c>
       <c r="H61" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K61">
+        <f t="shared" si="1"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2315,11 +2561,15 @@
         <v>100000</v>
       </c>
       <c r="H62" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2342,11 +2592,15 @@
         <v>100000</v>
       </c>
       <c r="H63" s="2">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2369,11 +2623,15 @@
         <v>550000</v>
       </c>
       <c r="H64" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550000</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <f t="shared" si="1"/>
+        <v>286000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2396,11 +2654,15 @@
         <v>300000</v>
       </c>
       <c r="H65" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <f t="shared" si="1"/>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2423,11 +2685,15 @@
         <v>650000</v>
       </c>
       <c r="H66" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650000</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <f t="shared" si="1"/>
+        <v>97500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2450,11 +2716,15 @@
         <v>70000</v>
       </c>
       <c r="H67" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>210000</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <f t="shared" ref="K67:K107" si="3">IF(E67="INTERNALSTORAGE",H67*52%,IF(E67="SERVICE",H67*100%,IF(E67="DISPLAY",H67*50%,IF(E67="RAM",H67*65%,IF(E67="SOFTWARE",H67*100%,IF(E67="BATTERY",H67*70%,IF(E67="KEYBOARD",H67*60%,IF(E67="ADAPTOR",H67*45%,IF(E67="MAINBOARD",H67*15%,IF(E67="ACCESSORIES",H67*25%,IF(E67="VGA",H67*15%,IF(E67="POWERSUPPLY",H67*40%,IF(E67="PROCESSOR",H67*20%,IF(E67="SECOND",H67*150%,IF(E67="CASING",H67*15%,IF(E67="MONITOR",H67*5%,IF(E67="EXTERNALSTORAGE",100000,H67)))))))))))))))))</f>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2477,11 +2747,15 @@
         <v>250000</v>
       </c>
       <c r="H68" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <f t="shared" si="3"/>
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2504,11 +2778,15 @@
         <v>250000</v>
       </c>
       <c r="H69" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <f t="shared" si="3"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2531,11 +2809,15 @@
         <v>150000</v>
       </c>
       <c r="H70" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <f t="shared" si="3"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2558,11 +2840,15 @@
         <v>250000</v>
       </c>
       <c r="H71" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <f t="shared" si="3"/>
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2585,12 +2871,16 @@
         <v>500000</v>
       </c>
       <c r="H72" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>500000</v>
       </c>
       <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <f t="shared" si="3"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2613,11 +2903,15 @@
         <v>650000</v>
       </c>
       <c r="H73" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650000</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <f t="shared" si="3"/>
+        <v>325000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2640,11 +2934,15 @@
         <v>100000</v>
       </c>
       <c r="H74" s="2">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2667,11 +2965,15 @@
         <v>150000</v>
       </c>
       <c r="H75" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <f t="shared" si="3"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2694,11 +2996,15 @@
         <v>250000</v>
       </c>
       <c r="H76" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <f t="shared" si="3"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2721,11 +3027,15 @@
         <v>450000</v>
       </c>
       <c r="H77" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>450000</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <f t="shared" si="3"/>
+        <v>234000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2748,11 +3058,15 @@
         <v>450000</v>
       </c>
       <c r="H78" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>450000</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <f t="shared" si="3"/>
+        <v>234000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2775,11 +3089,15 @@
         <v>300000</v>
       </c>
       <c r="H79" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K79">
+        <f t="shared" si="3"/>
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2802,11 +3120,15 @@
         <v>700000</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>700000</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <f t="shared" si="3"/>
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2829,11 +3151,15 @@
         <v>250000</v>
       </c>
       <c r="H81" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <f t="shared" si="3"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2856,11 +3182,15 @@
         <v>150000</v>
       </c>
       <c r="H82" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <f t="shared" si="3"/>
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2883,11 +3213,15 @@
         <v>150000</v>
       </c>
       <c r="H83" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <f t="shared" si="3"/>
+        <v>97500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2910,11 +3244,15 @@
         <v>50000</v>
       </c>
       <c r="H84" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <f t="shared" si="3"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2937,11 +3275,15 @@
         <v>250000</v>
       </c>
       <c r="H85" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <f t="shared" si="3"/>
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2964,11 +3306,15 @@
         <v>50000</v>
       </c>
       <c r="H86" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <f t="shared" si="3"/>
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2991,11 +3337,15 @@
         <v>610000</v>
       </c>
       <c r="H87" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>610000</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <f t="shared" si="3"/>
+        <v>317200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3018,11 +3368,15 @@
         <v>550000</v>
       </c>
       <c r="H88" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550000</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <f t="shared" si="3"/>
+        <v>385000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3045,11 +3399,15 @@
         <v>300000</v>
       </c>
       <c r="H89" s="2">
-        <f t="shared" ref="H89:H107" si="2">G89*D89</f>
+        <f t="shared" ref="H89:H107" si="4">G89*D89</f>
         <v>300000</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <f t="shared" si="3"/>
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3072,14 +3430,18 @@
         <v>550000</v>
       </c>
       <c r="H90" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>550000</v>
       </c>
       <c r="I90" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K90">
+        <f t="shared" si="3"/>
+        <v>286000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3102,14 +3464,18 @@
         <v>150000</v>
       </c>
       <c r="H91" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>150000</v>
       </c>
       <c r="I91" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K91">
+        <f t="shared" si="3"/>
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3132,14 +3498,18 @@
         <v>350000</v>
       </c>
       <c r="H92" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>350000</v>
       </c>
       <c r="I92" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K92">
+        <f t="shared" si="3"/>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3162,11 +3532,15 @@
         <v>300000</v>
       </c>
       <c r="H93" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K93">
+        <f t="shared" si="3"/>
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3189,11 +3563,15 @@
         <v>450000</v>
       </c>
       <c r="H94" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>450000</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <f t="shared" si="3"/>
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3216,11 +3594,15 @@
         <v>100000</v>
       </c>
       <c r="H95" s="2">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3243,11 +3625,15 @@
         <v>100000</v>
       </c>
       <c r="H96" s="2">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3270,11 +3656,15 @@
         <v>250000</v>
       </c>
       <c r="H97" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K97">
+        <f t="shared" si="3"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3297,11 +3687,15 @@
         <v>400000</v>
       </c>
       <c r="H98" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>400000</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K98">
+        <f t="shared" si="3"/>
+        <v>208000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3324,11 +3718,15 @@
         <v>100000</v>
       </c>
       <c r="H99" s="2">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="3"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3351,11 +3749,15 @@
         <v>100000</v>
       </c>
       <c r="H100" s="2">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3378,11 +3780,15 @@
         <v>80000</v>
       </c>
       <c r="H101" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>80000</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K101">
+        <f t="shared" si="3"/>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3405,11 +3811,15 @@
         <v>150000</v>
       </c>
       <c r="H102" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K102">
+        <f t="shared" si="3"/>
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3432,11 +3842,15 @@
         <v>150000</v>
       </c>
       <c r="H103" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K103">
+        <f t="shared" si="3"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3459,11 +3873,15 @@
         <v>100000</v>
       </c>
       <c r="H104" s="2">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3486,11 +3904,15 @@
         <v>500000</v>
       </c>
       <c r="H105" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K105">
+        <f t="shared" si="3"/>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3513,11 +3935,15 @@
         <v>200000</v>
       </c>
       <c r="H106" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K106">
+        <f t="shared" si="3"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3540,12 +3966,16 @@
         <v>100000</v>
       </c>
       <c r="H107" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="3"/>
         <v>100000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J107" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K107" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sales Data 2023/04Apr2023.xlsx
+++ b/Sales Data 2023/04Apr2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nevinphilbert\Portfolio\Full-Stack Projects\Maliq Computer Sales Analysis\Sales Data 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ED29CF-3385-4605-807F-76DD1E2DA8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784F2B27-629A-463E-916D-4E567108C88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,8 +298,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_([$IDR]\ * #,##0_);_([$IDR]\ * \(#,##0\);_([$IDR]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_([$IDR]\ * #,##0_);_([$IDR]\ * \(#,##0\);_([$IDR]\ * &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -336,10 +337,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,6 +639,7 @@
     <col min="7" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -700,8 +703,8 @@
         <f>G2*D2</f>
         <v>1800000</v>
       </c>
-      <c r="K2">
-        <f>IF(E2="INTERNALSTORAGE",H2*52%,IF(E2="SERVICE",H2*100%,IF(E2="DISPLAY",H2*50%,IF(E2="RAM",H2*65%,IF(E2="SOFTWARE",H2*100%,IF(E2="BATTERY",H2*70%,IF(E2="KEYBOARD",H2*60%,IF(E2="ADAPTOR",H2*45%,IF(E2="MAINBOARD",H2*15%,IF(E2="ACCESSORIES",H2*25%,IF(E2="VGA",H2*15%,IF(E2="POWERSUPPLY",H2*40%,IF(E2="PROCESSOR",H2*20%,IF(E2="SECOND",H2*150%,IF(E2="CASING",H2*15%,IF(E2="MONITOR",H2*5%,IF(E2="EXTERNALSTORAGE",100000,H2)))))))))))))))))</f>
+      <c r="K2" s="3">
+        <f>IF(E2="INTERNALSTORAGE",H2*52%,IF(E2="SERVICE",H2*100%,IF(E2="DISPLAY",H2*50%,IF(E2="RAM",H2*52%,IF(E2="SOFTWARE",H2*100%,IF(E2="BATTERY",H2*45%,IF(E2="KEYBOARD",150000,IF(E2="ADAPTOR",H2*40%,IF(E2="MAINBOARD",100000,IF(E2="ACCESSORIES",H2*35%,IF(E2="VGA",100000,IF(E2="POWERSUPPLY",H2*30%,IF(E2="PROCESSOR",150000,IF(E2="SECOND",H2*150%,IF(E2="CASING",100000,IF(E2="MONITOR",100000,IF(E2="EXTERNALSTORAGE",100000,H2)))))))))))))))))</f>
         <v>900000</v>
       </c>
     </row>
@@ -731,9 +734,9 @@
         <f t="shared" ref="H3:H56" si="0">G3*D3</f>
         <v>435000</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K66" si="1">IF(E3="INTERNALSTORAGE",H3*52%,IF(E3="SERVICE",H3*100%,IF(E3="DISPLAY",H3*50%,IF(E3="RAM",H3*65%,IF(E3="SOFTWARE",H3*100%,IF(E3="BATTERY",H3*70%,IF(E3="KEYBOARD",H3*60%,IF(E3="ADAPTOR",H3*45%,IF(E3="MAINBOARD",H3*15%,IF(E3="ACCESSORIES",H3*25%,IF(E3="VGA",H3*15%,IF(E3="POWERSUPPLY",H3*40%,IF(E3="PROCESSOR",H3*20%,IF(E3="SECOND",H3*150%,IF(E3="CASING",H3*15%,IF(E3="MONITOR",H3*5%,IF(E3="EXTERNALSTORAGE",100000,H3)))))))))))))))))</f>
-        <v>282750</v>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K66" si="1">IF(E3="INTERNALSTORAGE",H3*52%,IF(E3="SERVICE",H3*100%,IF(E3="DISPLAY",H3*50%,IF(E3="RAM",H3*52%,IF(E3="SOFTWARE",H3*100%,IF(E3="BATTERY",H3*45%,IF(E3="KEYBOARD",150000,IF(E3="ADAPTOR",H3*40%,IF(E3="MAINBOARD",100000,IF(E3="ACCESSORIES",H3*35%,IF(E3="VGA",100000,IF(E3="POWERSUPPLY",H3*30%,IF(E3="PROCESSOR",150000,IF(E3="SECOND",H3*150%,IF(E3="CASING",100000,IF(E3="MONITOR",100000,IF(E3="EXTERNALSTORAGE",100000,H3)))))))))))))))))</f>
+        <v>226200</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -762,7 +765,7 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <f t="shared" si="1"/>
         <v>156000</v>
       </c>
@@ -793,9 +796,9 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>210000</v>
+      <c r="K5" s="3">
+        <f t="shared" si="1"/>
+        <v>135000</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -824,7 +827,7 @@
         <f t="shared" si="0"/>
         <v>650000</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <f t="shared" si="1"/>
         <v>338000</v>
       </c>
@@ -855,9 +858,9 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>227500</v>
+      <c r="K7" s="3">
+        <f t="shared" si="1"/>
+        <v>182000</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -887,7 +890,7 @@
         <v>150000</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="K8">
+      <c r="K8" s="3">
         <f t="shared" si="1"/>
         <v>150000</v>
       </c>
@@ -918,7 +921,7 @@
         <f t="shared" si="0"/>
         <v>650000</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <f t="shared" si="1"/>
         <v>338000</v>
       </c>
@@ -949,7 +952,7 @@
         <f t="shared" si="0"/>
         <v>475000</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <f t="shared" si="1"/>
         <v>247000</v>
       </c>
@@ -980,9 +983,9 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
-        <v>90000</v>
+      <c r="K11" s="3">
+        <f t="shared" si="1"/>
+        <v>80000</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1011,9 +1014,9 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="1"/>
-        <v>227500</v>
+      <c r="K12" s="3">
+        <f t="shared" si="1"/>
+        <v>182000</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1042,7 +1045,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -1073,7 +1076,7 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <f t="shared" si="1"/>
         <v>182000</v>
       </c>
@@ -1104,7 +1107,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -1135,7 +1138,7 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
@@ -1166,9 +1169,9 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="1"/>
-        <v>130000</v>
+      <c r="K17" s="3">
+        <f t="shared" si="1"/>
+        <v>104000</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1197,9 +1200,9 @@
         <f t="shared" si="0"/>
         <v>280000</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="1"/>
-        <v>196000</v>
+      <c r="K18" s="3">
+        <f t="shared" si="1"/>
+        <v>126000</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1228,7 +1231,7 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <f t="shared" si="1"/>
         <v>150000</v>
       </c>
@@ -1259,7 +1262,7 @@
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <f t="shared" si="1"/>
         <v>364000</v>
       </c>
@@ -1290,7 +1293,7 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
         <f t="shared" si="1"/>
         <v>156000</v>
       </c>
@@ -1321,7 +1324,7 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
@@ -1352,9 +1355,9 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="1"/>
-        <v>135000</v>
+      <c r="K23" s="3">
+        <f t="shared" si="1"/>
+        <v>120000</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1383,9 +1386,9 @@
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="K24">
-        <f t="shared" si="1"/>
-        <v>420000</v>
+      <c r="K24" s="3">
+        <f t="shared" si="1"/>
+        <v>270000</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1414,7 +1417,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -1445,7 +1448,7 @@
         <f t="shared" si="0"/>
         <v>450000</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
         <f t="shared" si="1"/>
         <v>234000</v>
       </c>
@@ -1476,7 +1479,7 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="3">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
@@ -1507,7 +1510,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -1538,9 +1541,9 @@
         <f t="shared" si="0"/>
         <v>130000</v>
       </c>
-      <c r="K29">
-        <f t="shared" si="1"/>
-        <v>58500</v>
+      <c r="K29" s="3">
+        <f t="shared" si="1"/>
+        <v>52000</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1569,7 +1572,7 @@
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="3">
         <f t="shared" si="1"/>
         <v>750000</v>
       </c>
@@ -1600,9 +1603,9 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K31">
-        <f t="shared" si="1"/>
-        <v>90000</v>
+      <c r="K31" s="3">
+        <f t="shared" si="1"/>
+        <v>80000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1634,7 +1637,7 @@
       <c r="I32" t="s">
         <v>42</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="3">
         <f t="shared" si="1"/>
         <v>182000</v>
       </c>
@@ -1665,7 +1668,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -1696,7 +1699,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -1727,7 +1730,7 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="3">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
@@ -1758,7 +1761,7 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="3">
         <f t="shared" si="1"/>
         <v>182000</v>
       </c>
@@ -1789,9 +1792,9 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="K37">
-        <f t="shared" si="1"/>
-        <v>162500</v>
+      <c r="K37" s="3">
+        <f t="shared" si="1"/>
+        <v>130000</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -1820,7 +1823,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -1851,9 +1854,9 @@
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="K39">
-        <f t="shared" si="1"/>
-        <v>90000</v>
+      <c r="K39" s="3">
+        <f t="shared" si="1"/>
+        <v>100000</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -1882,7 +1885,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -1913,9 +1916,9 @@
         <f t="shared" si="0"/>
         <v>230000</v>
       </c>
-      <c r="K41">
-        <f t="shared" si="1"/>
-        <v>103500</v>
+      <c r="K41" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -1944,7 +1947,7 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="3">
         <f t="shared" si="1"/>
         <v>104000</v>
       </c>
@@ -1975,9 +1978,9 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="K43">
-        <f t="shared" si="1"/>
-        <v>12500</v>
+      <c r="K43" s="3">
+        <f t="shared" si="1"/>
+        <v>17500</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2006,9 +2009,9 @@
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="K44">
-        <f t="shared" si="1"/>
-        <v>2500</v>
+      <c r="K44" s="3">
+        <f t="shared" si="1"/>
+        <v>3500</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2037,7 +2040,7 @@
         <f t="shared" si="0"/>
         <v>1100000</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="3">
         <f t="shared" si="1"/>
         <v>550000</v>
       </c>
@@ -2068,9 +2071,9 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K46">
-        <f t="shared" si="1"/>
-        <v>90000</v>
+      <c r="K46" s="3">
+        <f t="shared" si="1"/>
+        <v>80000</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2099,7 +2102,7 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="3">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
@@ -2130,9 +2133,9 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K48">
-        <f t="shared" si="1"/>
-        <v>90000</v>
+      <c r="K48" s="3">
+        <f t="shared" si="1"/>
+        <v>80000</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2161,7 +2164,7 @@
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="3">
         <f t="shared" si="1"/>
         <v>208000</v>
       </c>
@@ -2192,7 +2195,7 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="3">
         <f t="shared" si="1"/>
         <v>250000</v>
       </c>
@@ -2223,7 +2226,7 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="3">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
@@ -2254,7 +2257,7 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="3">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
@@ -2285,7 +2288,7 @@
         <f t="shared" si="0"/>
         <v>650000</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="3">
         <f t="shared" si="1"/>
         <v>325000</v>
       </c>
@@ -2316,7 +2319,7 @@
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="3">
         <f t="shared" si="1"/>
         <v>500000</v>
       </c>
@@ -2347,9 +2350,9 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K55">
-        <f t="shared" si="1"/>
-        <v>80000</v>
+      <c r="K55" s="3">
+        <f t="shared" si="1"/>
+        <v>60000</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -2378,7 +2381,7 @@
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="3">
         <f t="shared" si="1"/>
         <v>500000</v>
       </c>
@@ -2409,7 +2412,7 @@
         <f t="shared" ref="H57:H88" si="2">G57*D57</f>
         <v>50000</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="3">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
@@ -2440,7 +2443,7 @@
         <f t="shared" si="2"/>
         <v>850000</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="3">
         <f t="shared" si="1"/>
         <v>1275000</v>
       </c>
@@ -2471,7 +2474,7 @@
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -2502,7 +2505,7 @@
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -2533,9 +2536,9 @@
         <f t="shared" si="2"/>
         <v>200000</v>
       </c>
-      <c r="K61">
-        <f t="shared" si="1"/>
-        <v>130000</v>
+      <c r="K61" s="3">
+        <f t="shared" si="1"/>
+        <v>104000</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -2564,7 +2567,7 @@
         <f t="shared" si="2"/>
         <v>200000</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="3">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
@@ -2595,7 +2598,7 @@
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -2626,7 +2629,7 @@
         <f t="shared" si="2"/>
         <v>550000</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="3">
         <f t="shared" si="1"/>
         <v>286000</v>
       </c>
@@ -2657,9 +2660,9 @@
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="K65">
-        <f t="shared" si="1"/>
-        <v>210000</v>
+      <c r="K65" s="3">
+        <f t="shared" si="1"/>
+        <v>135000</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -2688,9 +2691,9 @@
         <f t="shared" si="2"/>
         <v>650000</v>
       </c>
-      <c r="K66">
-        <f t="shared" si="1"/>
-        <v>97500</v>
+      <c r="K66" s="3">
+        <f t="shared" si="1"/>
+        <v>100000</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -2719,8 +2722,8 @@
         <f t="shared" si="2"/>
         <v>210000</v>
       </c>
-      <c r="K67">
-        <f t="shared" ref="K67:K107" si="3">IF(E67="INTERNALSTORAGE",H67*52%,IF(E67="SERVICE",H67*100%,IF(E67="DISPLAY",H67*50%,IF(E67="RAM",H67*65%,IF(E67="SOFTWARE",H67*100%,IF(E67="BATTERY",H67*70%,IF(E67="KEYBOARD",H67*60%,IF(E67="ADAPTOR",H67*45%,IF(E67="MAINBOARD",H67*15%,IF(E67="ACCESSORIES",H67*25%,IF(E67="VGA",H67*15%,IF(E67="POWERSUPPLY",H67*40%,IF(E67="PROCESSOR",H67*20%,IF(E67="SECOND",H67*150%,IF(E67="CASING",H67*15%,IF(E67="MONITOR",H67*5%,IF(E67="EXTERNALSTORAGE",100000,H67)))))))))))))))))</f>
+      <c r="K67" s="3">
+        <f t="shared" ref="K67:K107" si="3">IF(E67="INTERNALSTORAGE",H67*52%,IF(E67="SERVICE",H67*100%,IF(E67="DISPLAY",H67*50%,IF(E67="RAM",H67*52%,IF(E67="SOFTWARE",H67*100%,IF(E67="BATTERY",H67*45%,IF(E67="KEYBOARD",150000,IF(E67="ADAPTOR",H67*40%,IF(E67="MAINBOARD",100000,IF(E67="ACCESSORIES",H67*35%,IF(E67="VGA",100000,IF(E67="POWERSUPPLY",H67*30%,IF(E67="PROCESSOR",150000,IF(E67="SECOND",H67*150%,IF(E67="CASING",100000,IF(E67="MONITOR",100000,IF(E67="EXTERNALSTORAGE",100000,H67)))))))))))))))))</f>
         <v>210000</v>
       </c>
     </row>
@@ -2750,9 +2753,9 @@
         <f t="shared" si="2"/>
         <v>250000</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="3">
         <f t="shared" si="3"/>
-        <v>175000</v>
+        <v>112500</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -2781,7 +2784,7 @@
         <f t="shared" si="2"/>
         <v>250000</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="3">
         <f t="shared" si="3"/>
         <v>150000</v>
       </c>
@@ -2812,9 +2815,9 @@
         <f t="shared" si="2"/>
         <v>150000</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="3">
         <f t="shared" si="3"/>
-        <v>90000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -2843,9 +2846,9 @@
         <f t="shared" si="2"/>
         <v>250000</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="3">
         <f t="shared" si="3"/>
-        <v>175000</v>
+        <v>112500</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -2875,7 +2878,7 @@
         <v>500000</v>
       </c>
       <c r="I72" s="2"/>
-      <c r="K72">
+      <c r="K72" s="3">
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
@@ -2906,7 +2909,7 @@
         <f t="shared" si="2"/>
         <v>650000</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="3">
         <f t="shared" si="3"/>
         <v>325000</v>
       </c>
@@ -2937,7 +2940,7 @@
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="3">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
@@ -2968,7 +2971,7 @@
         <f t="shared" si="2"/>
         <v>150000</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="3">
         <f t="shared" si="3"/>
         <v>150000</v>
       </c>
@@ -2999,7 +3002,7 @@
         <f t="shared" si="2"/>
         <v>250000</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="3">
         <f t="shared" si="3"/>
         <v>150000</v>
       </c>
@@ -3030,7 +3033,7 @@
         <f t="shared" si="2"/>
         <v>450000</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="3">
         <f t="shared" si="3"/>
         <v>234000</v>
       </c>
@@ -3061,7 +3064,7 @@
         <f t="shared" si="2"/>
         <v>450000</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="3">
         <f t="shared" si="3"/>
         <v>234000</v>
       </c>
@@ -3092,9 +3095,9 @@
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="3">
         <f t="shared" si="3"/>
-        <v>195000</v>
+        <v>156000</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -3123,9 +3126,9 @@
         <f t="shared" si="2"/>
         <v>700000</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="3">
         <f t="shared" si="3"/>
-        <v>105000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -3154,7 +3157,7 @@
         <f t="shared" si="2"/>
         <v>250000</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="3">
         <f t="shared" si="3"/>
         <v>250000</v>
       </c>
@@ -3185,9 +3188,9 @@
         <f t="shared" si="2"/>
         <v>150000</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="3">
         <f t="shared" si="3"/>
-        <v>67500</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -3216,9 +3219,9 @@
         <f t="shared" si="2"/>
         <v>150000</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="3">
         <f t="shared" si="3"/>
-        <v>97500</v>
+        <v>78000</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -3247,7 +3250,7 @@
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="3">
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
@@ -3278,9 +3281,9 @@
         <f t="shared" si="2"/>
         <v>250000</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="3">
         <f t="shared" si="3"/>
-        <v>175000</v>
+        <v>112500</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -3309,9 +3312,9 @@
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="3">
         <f t="shared" si="3"/>
-        <v>12500</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -3340,7 +3343,7 @@
         <f t="shared" si="2"/>
         <v>610000</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="3">
         <f t="shared" si="3"/>
         <v>317200</v>
       </c>
@@ -3371,9 +3374,9 @@
         <f t="shared" si="2"/>
         <v>550000</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="3">
         <f t="shared" si="3"/>
-        <v>385000</v>
+        <v>247500</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -3402,7 +3405,7 @@
         <f t="shared" ref="H89:H107" si="4">G89*D89</f>
         <v>300000</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="3">
         <f t="shared" si="3"/>
         <v>156000</v>
       </c>
@@ -3436,7 +3439,7 @@
       <c r="I90" t="s">
         <v>78</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="3">
         <f t="shared" si="3"/>
         <v>286000</v>
       </c>
@@ -3470,9 +3473,9 @@
       <c r="I91" t="s">
         <v>78</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="3">
         <f t="shared" si="3"/>
-        <v>37500</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -3504,9 +3507,9 @@
       <c r="I92" t="s">
         <v>81</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="3">
         <f t="shared" si="3"/>
-        <v>210000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -3535,7 +3538,7 @@
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="3">
         <f t="shared" si="3"/>
         <v>156000</v>
       </c>
@@ -3566,7 +3569,7 @@
         <f t="shared" si="4"/>
         <v>450000</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="3">
         <f t="shared" si="3"/>
         <v>225000</v>
       </c>
@@ -3597,7 +3600,7 @@
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="3">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
@@ -3628,7 +3631,7 @@
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="3">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
@@ -3659,7 +3662,7 @@
         <f t="shared" si="4"/>
         <v>250000</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="3">
         <f t="shared" si="3"/>
         <v>250000</v>
       </c>
@@ -3690,7 +3693,7 @@
         <f t="shared" si="4"/>
         <v>400000</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="3">
         <f t="shared" si="3"/>
         <v>208000</v>
       </c>
@@ -3721,9 +3724,9 @@
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="3">
         <f t="shared" si="3"/>
-        <v>25000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -3752,7 +3755,7 @@
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="3">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
@@ -3783,9 +3786,9 @@
         <f t="shared" si="4"/>
         <v>80000</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="3">
         <f t="shared" si="3"/>
-        <v>16000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -3814,9 +3817,9 @@
         <f t="shared" si="4"/>
         <v>150000</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="3">
         <f t="shared" si="3"/>
-        <v>37500</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -3845,9 +3848,9 @@
         <f t="shared" si="4"/>
         <v>150000</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="3">
         <f t="shared" si="3"/>
-        <v>90000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -3876,7 +3879,7 @@
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="3">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
@@ -3907,7 +3910,7 @@
         <f t="shared" si="4"/>
         <v>500000</v>
       </c>
-      <c r="K105">
+      <c r="K105" s="3">
         <f t="shared" si="3"/>
         <v>260000</v>
       </c>
@@ -3938,9 +3941,9 @@
         <f t="shared" si="4"/>
         <v>200000</v>
       </c>
-      <c r="K106">
+      <c r="K106" s="3">
         <f t="shared" si="3"/>
-        <v>130000</v>
+        <v>104000</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -3969,7 +3972,7 @@
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
-      <c r="K107">
+      <c r="K107" s="3">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
